--- a/DB파이널프로젝트/약정기간별 금액.xlsx
+++ b/DB파이널프로젝트/약정기간별 금액.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="299">
   <si>
     <t>2,500,000원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -871,98 +871,101 @@
     <t>(30, '필립스 휴 스마트 조명', '230,000원', '1년', '207,000원', '17,250원)</t>
   </si>
   <si>
-    <t>3년약정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(31, '삼성 QLED TV 65인치', '2,500,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(32, 'LG 퓨리케어 공기청정기', '1,200,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(33, '다이슨 무선 청소기 V11', '950,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(34, '쿠쿠 전기밥솥 10인용', '320,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(35, 'LG 디오스 양문형 냉장고', '3,400,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(36, '삼성 그랑데 AI 세탁기', '1,800,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(37, 'SK매직 식기세척기', '1,150,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(38, 'LG 트롬 건조기', '1,500,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(39, '쿠첸 전기밥솥 6인용', '250,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(40, '필립스 에어프라이어 XXL', '330,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(41, '파나소닉 전자레인지', '210,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(42, '브라운 면도기 시리즈 9', '450,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(43, '아이리버 블루투스 스피커', '85,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(44, '발뮤다 토스터기', '270,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(45, '다이슨 퓨어쿨 공기청정기', '950,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(46, '한일 선풍기', '55,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(47, '삼성 갤럭시 워치 5', '350,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(48, 'LG 오브제 스타일러', '1,900,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(49, '에코백스 로봇청소기', '720,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(50, '위닉스 제습기 17L', '380,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(51, '보스 블루투스 이어폰', '200,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(52, '로지텍 무선 마우스 MX Master 3', '110,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(53, '삼성 노트북 갤럭시북', '1,600,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(54, '소니 4K UHD 블루레이 플레이어', '500,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(55, 'LG 휘센 에어컨', '2,700,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(56, '파나소닉 무선 전화기', '120,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(57, '브레빌 커피머신', '890,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(58, '샤오미 미지아 전기포트', '35,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(59, '삼성 전기오븐', '650,000원', '3년', '</t>
-  </si>
-  <si>
-    <t>(60, '필립스 휴 스마트 조명', '230,000원', '3년', '</t>
+    <t>3약정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>777원','</t>
+  </si>
+  <si>
+    <t>(31, '삼성 QLED TV 65인치', '2,500,000원', '3년', '2,000,000원','55,555원')</t>
+  </si>
+  <si>
+    <t>(32, 'LG 퓨리케어 공기청정기', '1,200,000원', '3년', '960,000원','26,666원')</t>
+  </si>
+  <si>
+    <t>(33, '다이슨 무선 청소기 V11', '950,000원', '3년', '760,000원','21,111원')</t>
+  </si>
+  <si>
+    <t>(34, '쿠쿠 전기밥솥 10인용', '320,000원', '3년', '256,000원','7,111원')</t>
+  </si>
+  <si>
+    <t>(35, 'LG 디오스 양문형 냉장고', '3,400,000원', '3년', '2,720,000원','75,555원')</t>
+  </si>
+  <si>
+    <t>(36, '삼성 그랑데 AI 세탁기', '1,800,000원', '3년', '1,440,000원','40,000원')</t>
+  </si>
+  <si>
+    <t>(37, 'SK매직 식기세척기', '1,150,000원', '3년', '920,000원','25,555원')</t>
+  </si>
+  <si>
+    <t>(38, 'LG 트롬 건조기', '1,500,000원', '3년', '1,200,000원','33,333원')</t>
+  </si>
+  <si>
+    <t>(39, '쿠첸 전기밥솥 6인용', '250,000원', '3년', '200,000원','5,555원')</t>
+  </si>
+  <si>
+    <t>(40, '필립스 에어프라이어 XXL', '330,000원', '3년', '264,000원','7,333원')</t>
+  </si>
+  <si>
+    <t>(41, '파나소닉 전자레인지', '210,000원', '3년', '168,000원','4,666원')</t>
+  </si>
+  <si>
+    <t>(42, '브라운 면도기 시리즈 9', '450,000원', '3년', '360,000원','10,000원')</t>
+  </si>
+  <si>
+    <t>(43, '아이리버 블루투스 스피커', '85,000원', '3년', '68,000원','1,888원')</t>
+  </si>
+  <si>
+    <t>(44, '발뮤다 토스터기', '270,000원', '3년', '216,000원','6,000원')</t>
+  </si>
+  <si>
+    <t>(45, '다이슨 퓨어쿨 공기청정기', '950,000원', '3년', '760,000원','21,111원')</t>
+  </si>
+  <si>
+    <t>(46, '한일 선풍기', '55,000원', '3년', '44,000원','1,222원')</t>
+  </si>
+  <si>
+    <t>(47, '삼성 갤럭시 워치 5', '350,000원', '3년', '280,000원','7,777원')</t>
+  </si>
+  <si>
+    <t>(48, 'LG 오브제 스타일러', '1,900,000원', '3년', '1,520,000원','42,222원')</t>
+  </si>
+  <si>
+    <t>(49, '에코백스 로봇청소기', '720,000원', '3년', '576,000원','16,000원')</t>
+  </si>
+  <si>
+    <t>(50, '위닉스 제습기 17L', '380,000원', '3년', '304,000원','8,444원')</t>
+  </si>
+  <si>
+    <t>(51, '보스 블루투스 이어폰', '200,000원', '3년', '160,000원','4,444원')</t>
+  </si>
+  <si>
+    <t>(52, '로지텍 무선 마우스 MX Master 3', '110,000원', '3년', '88,000원','2,444원')</t>
+  </si>
+  <si>
+    <t>(53, '삼성 노트북 갤럭시북', '1,600,000원', '3년', '1,280,000원','35,555원')</t>
+  </si>
+  <si>
+    <t>(54, '소니 4K UHD 블루레이 플레이어', '500,000원', '3년', '400,000원','11,111원')</t>
+  </si>
+  <si>
+    <t>(55, 'LG 휘센 에어컨', '2,700,000원', '3년', '2,160,000원','60,000원')</t>
+  </si>
+  <si>
+    <t>(56, '파나소닉 무선 전화기', '120,000원', '3년', '96,000원','2,666원')</t>
+  </si>
+  <si>
+    <t>(57, '브레빌 커피머신', '890,000원', '3년', '712,000원','19,777원')</t>
+  </si>
+  <si>
+    <t>(58, '샤오미 미지아 전기포트', '35,000원', '3년', '28,000원')</t>
+  </si>
+  <si>
+    <t>(59, '삼성 전기오븐', '650,000원', '3년', '520,000원','14,444원')</t>
+  </si>
+  <si>
+    <t>(60, '필립스 휴 스마트 조명', '230,000원', '3년', '184,000원','5,111원')</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1486,11 +1489,6 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
         <v>269</v>
       </c>
     </row>
@@ -1499,139 +1497,147 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>271</v>
-      </c>
-    </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B56" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -1815,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
